--- a/biology/Médecine/Nerf_fibulaire_profond/Nerf_fibulaire_profond.xlsx
+++ b/biology/Médecine/Nerf_fibulaire_profond/Nerf_fibulaire_profond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nerf fibulaire profond (Nervus peroneus profundus), ancien nerf tibial antérieur est un nerf de la partie antérieure de la jambe. Il est l'une des deux branches terminales du nerf fibulaire commun.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine: il nait au-dessous du muscle long fibulaire au niveau du bord externe du col de la fibula, d'une des deux branches terminales du nerf fibulaire commun, l'autre étant le nerf fibulaire superficiel anciennement appelé nerf musculo-cutané.
 Trajet: il descend oblique en avant vers la cloison intermusculaire antéro-externe qu'il perfore pour pénétrer dans la loge antérieure. Après avoir traversé la partie supérieure du muscle long extenseur des orteils(ancien muscle extenseur commun des orteils), il descend en avant de la membrane interosseuse et croise en avant l'artère tibiale antérieure entre les muscles long extenseur des orteils et tibial antérieur puis entre celui-ci et le muscle long extenseur de l'hallux, passe avec le tendon de ce muscle sous le rétinaculum inférieur des muscles extenseurs du pied (ligament annulaire antérieur) et après un court trajet à la face dorsale du pied entre le muscle long extenseur de l'hallux en dedans et le muscle court extenseur des orteils en dehors, il se divise en ses deux branches terminales
@@ -546,7 +560,9 @@
           <t>Branches collatérales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fibulaire profond fournit plusieurs rameaux collatéraux:
 les rameaux internes innervent le muscle tibial antérieur
